--- a/ASSET HANDOVER ABCH - FORM Result.xlsx
+++ b/ASSET HANDOVER ABCH - FORM Result.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Aston Bojonegoro City Hotel</t>
   </si>
@@ -106,16 +106,7 @@
     <t>05-12-2013</t>
   </si>
   <si>
-    <t>Approved by: Finance Control, Head of Department, and General Manager</t>
-  </si>
-  <si>
-    <t>Financial Controller</t>
-  </si>
-  <si>
-    <t>Head of Department</t>
-  </si>
-  <si>
-    <t>General Manager</t>
+    <t>Approved by: Owner, Financial Controller, Financial Controller</t>
   </si>
   <si>
     <t>:</t>
@@ -125,9 +116,6 @@
   </si>
   <si>
     <t>I hereby acknowledge that I have received the above mentioned assets. I understand that this assets belongs to the company and is under my possession while carrying out the work. I hereby assure that I will take care of the assets of the company to the best possible extent and take responsibility for loss and breakage of any caused.</t>
-  </si>
-  <si>
-    <t>User/Employee</t>
   </si>
 </sst>
 </file>
@@ -2371,17 +2359,17 @@
     <row r="34" spans="1:16139" customHeight="1" ht="20.1" s="3" customFormat="1">
       <c r="A34" s="1"/>
       <c r="B34" s="124" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C34" s="125"/>
       <c r="E34" s="48"/>
       <c r="F34" s="110" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G34" s="110"/>
       <c r="H34" s="48"/>
       <c r="I34" s="110" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="J34" s="111"/>
       <c r="K34" s="6"/>
@@ -2392,7 +2380,7 @@
         <v>22</v>
       </c>
       <c r="C35" s="92" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D35" s="93"/>
       <c r="E35" s="94"/>
@@ -2419,7 +2407,7 @@
     <row r="37" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A37" s="1"/>
       <c r="B37" s="114" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C37" s="115"/>
       <c r="D37" s="115"/>
@@ -2434,7 +2422,7 @@
     <row r="38" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A38" s="1"/>
       <c r="B38" s="106" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C38" s="107"/>
       <c r="D38" s="108"/>
@@ -2521,7 +2509,7 @@
       <c r="G44" s="30"/>
       <c r="H44" s="30"/>
       <c r="I44" s="122" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="J44" s="123"/>
       <c r="K44" s="17"/>

--- a/ASSET HANDOVER ABCH - FORM Result.xlsx
+++ b/ASSET HANDOVER ABCH - FORM Result.xlsx
@@ -10,14 +10,14 @@
     <sheet name="FA HandOver - ASTON - FC to DH" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'FA HandOver - ASTON - FC to DH'!$A$1:$K$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'FA HandOver - ASTON - FC to DH'!$A$1:$K$48</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Aston Bojonegoro City Hotel</t>
   </si>
@@ -28,85 +28,103 @@
     <t xml:space="preserve">Handover Transaction No </t>
   </si>
   <si>
-    <t>0003</t>
+    <t>0004</t>
   </si>
   <si>
     <t>Handed Over To ( Name )</t>
   </si>
   <si>
+    <t>Chef Sinyo</t>
+  </si>
+  <si>
+    <t>Code No</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Kitchen Utilities</t>
+  </si>
+  <si>
+    <t>Handed Over By ( Name )</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Handover Date</t>
+  </si>
+  <si>
+    <t>25-06-2020</t>
+  </si>
+  <si>
+    <t>Please find below for the assets handed over to you, to support you in carrying out your assignment in the most proficient manner</t>
+  </si>
+  <si>
+    <t>Assets Handed Over</t>
+  </si>
+  <si>
+    <t>Asset Number</t>
+  </si>
+  <si>
+    <t>Asset Description</t>
+  </si>
+  <si>
+    <t>Dept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procurement </t>
+  </si>
+  <si>
+    <t>Accumulated Depreciation</t>
+  </si>
+  <si>
+    <t>Net Book Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks </t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Current Cost</t>
+  </si>
+  <si>
+    <t>Depreciation Amount</t>
+  </si>
+  <si>
+    <t>Ytd Depreciation</t>
+  </si>
+  <si>
+    <t>0108</t>
+  </si>
+  <si>
+    <t>Table w/ Marble</t>
+  </si>
+  <si>
+    <t>20-06-2013</t>
+  </si>
+  <si>
+    <t>0109</t>
+  </si>
+  <si>
+    <t>Sink 1 Bowl w/ Faucet H&amp;amp;C</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>Dough Mixer (Cap. 20 Liter)</t>
+  </si>
+  <si>
+    <t>05-12-2013</t>
+  </si>
+  <si>
+    <t>Approved by: Owner, Owner, Financial Controller</t>
+  </si>
+  <si>
     <t>Intan Noor Azizah</t>
-  </si>
-  <si>
-    <t>Code No</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>Handed Over By ( Name )</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Handover Date</t>
-  </si>
-  <si>
-    <t>21-06-2014</t>
-  </si>
-  <si>
-    <t>Please find below for the assets handed over to you, to support you in carrying out your assignment in the most proficient manner</t>
-  </si>
-  <si>
-    <t>Assets Handed Over</t>
-  </si>
-  <si>
-    <t>Asset Number</t>
-  </si>
-  <si>
-    <t>Asset Description</t>
-  </si>
-  <si>
-    <t>Dept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Procurement </t>
-  </si>
-  <si>
-    <t>Accumulated Depreciation</t>
-  </si>
-  <si>
-    <t>Net Book Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remarks </t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Current Cost</t>
-  </si>
-  <si>
-    <t>Depreciation Amount</t>
-  </si>
-  <si>
-    <t>Ytd Depreciation</t>
-  </si>
-  <si>
-    <t>0119</t>
-  </si>
-  <si>
-    <t>Insect Killer</t>
-  </si>
-  <si>
-    <t>05-12-2013</t>
-  </si>
-  <si>
-    <t>Approved by: Owner, Financial Controller, Financial Controller</t>
   </si>
   <si>
     <t>:</t>
@@ -1303,7 +1321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:WVS51"/>
+  <dimension ref="A1:WVS53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
       <selection activeCell="E28" sqref="E28"/>
@@ -2275,181 +2293,199 @@
         <v>28</v>
       </c>
       <c r="F28" s="134">
-        <v>25000000.0</v>
-      </c>
-      <c r="G28" s="134">
-        <v>9000000.0</v>
-      </c>
-      <c r="H28" s="134">
-        <v>9750000.0</v>
-      </c>
-      <c r="I28" s="134">
-        <v>15250000.0</v>
-      </c>
+        <v>2800000.0</v>
+      </c>
+      <c r="G28" s="134"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="134"/>
       <c r="J28" s="64"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:16139" customHeight="1" ht="8.25" s="3" customFormat="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+    <row r="29" spans="1:16139" customHeight="1" ht="22.5">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="133" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="134">
+        <v>2900000.0</v>
+      </c>
+      <c r="G29" s="134"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="64"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="9"/>
+    <row r="30" spans="1:16139" customHeight="1" ht="22.5">
+      <c r="A30" s="1">
+        <v>3</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="133" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="134">
+        <v>3100000.0</v>
+      </c>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="64"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:16139" customHeight="1" ht="30" s="3" customFormat="1">
+    <row r="31" spans="1:16139" customHeight="1" ht="8.25" s="3" customFormat="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="6"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:16139" customHeight="1" ht="30" s="3" customFormat="1">
+    <row r="32" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="6"/>
+      <c r="B32" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:16139" customHeight="1" ht="30" s="3" customFormat="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="12"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="6"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:16139" customHeight="1" ht="20.1" s="3" customFormat="1">
+    <row r="34" spans="1:16139" customHeight="1" ht="30" s="3" customFormat="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="124" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:16139" customHeight="1" ht="30" s="3" customFormat="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="1:16139" customHeight="1" ht="20.1" s="3" customFormat="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="125"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="110"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="J34" s="111"/>
-      <c r="K34" s="6"/>
-    </row>
-    <row r="35" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="93"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="6"/>
-    </row>
-    <row r="36" spans="1:16139" customHeight="1" ht="8.25" s="3" customFormat="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="C36" s="125"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="110"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" s="111"/>
       <c r="K36" s="6"/>
     </row>
     <row r="37" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="114" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="116"/>
+      <c r="B37" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="93"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="14"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
+    <row r="38" spans="1:16139" customHeight="1" ht="8.25" s="3" customFormat="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="107"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="108"/>
-      <c r="G38" s="108"/>
-      <c r="H38" s="108"/>
-      <c r="I38" s="108"/>
-      <c r="J38" s="109"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:16139" customHeight="1" ht="20.1" s="3" customFormat="1">
+    <row r="39" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="106"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="108"/>
-      <c r="G39" s="108"/>
-      <c r="H39" s="108"/>
-      <c r="I39" s="108"/>
-      <c r="J39" s="109"/>
+      <c r="B39" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="116"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:16139" customHeight="1" ht="20.1" s="3" customFormat="1">
+    <row r="40" spans="1:16139" customHeight="1" ht="22.5" s="3" customFormat="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="106"/>
+      <c r="B40" s="106" t="s">
+        <v>38</v>
+      </c>
       <c r="C40" s="107"/>
       <c r="D40" s="108"/>
       <c r="E40" s="108"/>
@@ -2460,34 +2496,34 @@
       <c r="J40" s="109"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:16139" customHeight="1" ht="30" s="3" customFormat="1">
+    <row r="41" spans="1:16139" customHeight="1" ht="20.1" s="3" customFormat="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="17"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="108"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="109"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:16139" customHeight="1" ht="30" s="3" customFormat="1">
+    <row r="42" spans="1:16139" customHeight="1" ht="20.1" s="3" customFormat="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="17"/>
+      <c r="B42" s="106"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="109"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:16139" customHeight="1" ht="30" s="18" customFormat="1">
-      <c r="A43" s="16"/>
+    <row r="43" spans="1:16139" customHeight="1" ht="30" s="3" customFormat="1">
+      <c r="A43" s="1"/>
       <c r="B43" s="29"/>
       <c r="C43" s="80"/>
       <c r="D43" s="30"/>
@@ -2496,11 +2532,11 @@
       <c r="G43" s="30"/>
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="17"/>
-    </row>
-    <row r="44" spans="1:16139" customHeight="1" ht="20.1" s="18" customFormat="1">
-      <c r="A44" s="16"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="1:16139" customHeight="1" ht="30" s="3" customFormat="1">
+      <c r="A44" s="1"/>
       <c r="B44" s="29"/>
       <c r="C44" s="80"/>
       <c r="D44" s="30"/>
@@ -2508,97 +2544,123 @@
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
       <c r="H44" s="30"/>
-      <c r="I44" s="122" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="123"/>
-      <c r="K44" s="17"/>
-    </row>
-    <row r="45" spans="1:16139" customHeight="1" ht="15" s="18" customFormat="1">
+      <c r="I44" s="30"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="1:16139" customHeight="1" ht="30" s="18" customFormat="1">
       <c r="A45" s="16"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="35"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="32"/>
       <c r="K45" s="17"/>
     </row>
-    <row r="46" spans="1:16139" customHeight="1" ht="9.95" s="3" customFormat="1">
-      <c r="A46" s="36"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="14"/>
-    </row>
-    <row r="47" spans="1:16139" customHeight="1" ht="15.75" s="3" customFormat="1">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-    </row>
-    <row r="48" spans="1:16139">
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-    </row>
-    <row r="49" spans="1:16139">
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
+    <row r="46" spans="1:16139" customHeight="1" ht="20.1" s="18" customFormat="1">
+      <c r="A46" s="16"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="122" t="s">
+        <v>35</v>
+      </c>
+      <c r="J46" s="123"/>
+      <c r="K46" s="17"/>
+    </row>
+    <row r="47" spans="1:16139" customHeight="1" ht="15" s="18" customFormat="1">
+      <c r="A47" s="16"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="17"/>
+    </row>
+    <row r="48" spans="1:16139" customHeight="1" ht="9.95" s="3" customFormat="1">
+      <c r="A48" s="36"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="14"/>
+    </row>
+    <row r="49" spans="1:16139" customHeight="1" ht="15.75" s="3" customFormat="1">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
     </row>
     <row r="50" spans="1:16139">
       <c r="B50" s="37"/>
       <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
       <c r="H50" s="37"/>
       <c r="I50" s="37"/>
       <c r="J50" s="37"/>
-      <c r="K50" s="40"/>
+      <c r="K50" s="37"/>
     </row>
     <row r="51" spans="1:16139">
       <c r="B51" s="37"/>
       <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+    </row>
+    <row r="52" spans="1:16139">
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="40"/>
+    </row>
+    <row r="53" spans="1:16139">
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:H26"/>
@@ -2606,12 +2668,12 @@
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="B5:K5"/>
     <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B38:J40"/>
-    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="B40:J42"/>
+    <mergeCell ref="I36:J36"/>
     <mergeCell ref="I26:I27"/>
     <mergeCell ref="B25:J25"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B39:J39"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="C26:C27"/>
